--- a/natmiOut/YoungD0/LR-pairs_lrc2p/Glg1-Sele.xlsx
+++ b/natmiOut/YoungD0/LR-pairs_lrc2p/Glg1-Sele.xlsx
@@ -528,34 +528,34 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>25.3145280458233</v>
+        <v>25.881338</v>
       </c>
       <c r="H2">
-        <v>25.3145280458233</v>
+        <v>77.644014</v>
       </c>
       <c r="I2">
-        <v>0.29810970088002</v>
+        <v>0.3003352138642484</v>
       </c>
       <c r="J2">
-        <v>0.29810970088002</v>
+        <v>0.3003352138642483</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>3.12570219519085</v>
+        <v>7.321929333333333</v>
       </c>
       <c r="N2">
-        <v>3.12570219519085</v>
+        <v>21.965788</v>
       </c>
       <c r="O2">
         <v>1</v>
@@ -564,16 +564,16 @@
         <v>1</v>
       </c>
       <c r="Q2">
-        <v>79.12567588305023</v>
+        <v>189.5013278881147</v>
       </c>
       <c r="R2">
-        <v>79.12567588305023</v>
+        <v>1705.511950993032</v>
       </c>
       <c r="S2">
-        <v>0.29810970088002</v>
+        <v>0.3003352138642484</v>
       </c>
       <c r="T2">
-        <v>0.29810970088002</v>
+        <v>0.3003352138642483</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,34 +590,34 @@
         <v>20</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>40.5304482920695</v>
+        <v>40.54528033333333</v>
       </c>
       <c r="H3">
-        <v>40.5304482920695</v>
+        <v>121.635841</v>
       </c>
       <c r="I3">
-        <v>0.4772958751200371</v>
+        <v>0.4705002283922712</v>
       </c>
       <c r="J3">
-        <v>0.4772958751200371</v>
+        <v>0.4705002283922713</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>3.12570219519085</v>
+        <v>7.321929333333333</v>
       </c>
       <c r="N3">
-        <v>3.12570219519085</v>
+        <v>21.965788</v>
       </c>
       <c r="O3">
         <v>1</v>
@@ -626,16 +626,16 @@
         <v>1</v>
       </c>
       <c r="Q3">
-        <v>126.6861111985909</v>
+        <v>296.8696774008564</v>
       </c>
       <c r="R3">
-        <v>126.6861111985909</v>
+        <v>2671.827096607708</v>
       </c>
       <c r="S3">
-        <v>0.4772958751200371</v>
+        <v>0.4705002283922712</v>
       </c>
       <c r="T3">
-        <v>0.4772958751200371</v>
+        <v>0.4705002283922713</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,34 +652,34 @@
         <v>20</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>19.0718444535635</v>
+        <v>19.74821833333333</v>
       </c>
       <c r="H4">
-        <v>19.0718444535635</v>
+        <v>59.24465499999999</v>
       </c>
       <c r="I4">
-        <v>0.2245944239999429</v>
+        <v>0.2291645577434805</v>
       </c>
       <c r="J4">
-        <v>0.2245944239999429</v>
+        <v>0.2291645577434805</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>3.12570219519085</v>
+        <v>7.321929333333333</v>
       </c>
       <c r="N4">
-        <v>3.12570219519085</v>
+        <v>21.965788</v>
       </c>
       <c r="O4">
         <v>1</v>
@@ -688,16 +688,16 @@
         <v>1</v>
       </c>
       <c r="Q4">
-        <v>59.61290607484187</v>
+        <v>144.5950590959044</v>
       </c>
       <c r="R4">
-        <v>59.61290607484187</v>
+        <v>1301.35553186314</v>
       </c>
       <c r="S4">
-        <v>0.2245944239999429</v>
+        <v>0.2291645577434805</v>
       </c>
       <c r="T4">
-        <v>0.2245944239999429</v>
+        <v>0.2291645577434805</v>
       </c>
     </row>
   </sheetData>
